--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tymoteuszilczyszyn/Documents/CODING/django interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E4819F-C0F8-CA49-B88E-B91213676649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6196630F-B41B-7A4C-B4BC-BF1A84215239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="680" windowWidth="28960" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9278,8 +9278,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D688" sqref="D688"/>
+    <sheetView tabSelected="1" topLeftCell="F656" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
